--- a/docs/instyle.xlsx
+++ b/docs/instyle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arkad\Projects\travel\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1463F7-01EB-4F15-B7A3-4B792D45758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D999EE1-2403-4DA1-90D3-473ABF398077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>UMOWA – ZGŁOSZENIE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>IN STYLE TRAVEL SP. Z O.O. SP. K.</t>
   </si>
@@ -282,23 +279,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ALA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62:N63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -798,32 +795,30 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
       <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -833,7 +828,7 @@
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -863,7 +858,7 @@
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -893,7 +888,7 @@
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -923,7 +918,7 @@
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -965,7 +960,7 @@
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -978,16 +973,16 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="13"/>
-      <c r="R17" s="28" t="s">
-        <v>3</v>
+      <c r="R17" s="29" t="s">
+        <v>2</v>
       </c>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
       <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1025,16 +1020,16 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="28" t="s">
-        <v>4</v>
+      <c r="R20" s="29" t="s">
+        <v>3</v>
       </c>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1144,7 +1139,7 @@
     <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1193,7 +1188,7 @@
     <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1210,16 +1205,16 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
-      <c r="R27" s="28" t="s">
-        <v>7</v>
+      <c r="R27" s="29" t="s">
+        <v>6</v>
       </c>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
       <c r="Z27" s="7"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1270,7 +1265,7 @@
     <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1287,16 +1282,16 @@
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
-      <c r="R30" s="28" t="s">
-        <v>9</v>
+      <c r="R30" s="29" t="s">
+        <v>8</v>
       </c>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
       <c r="Z30" s="7"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1316,14 +1311,14 @@
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
       <c r="Z31" s="7"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1383,7 +1378,7 @@
     <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1576,8 +1571,8 @@
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
       <c r="L62" s="20"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
       <c r="O62" s="20"/>
       <c r="P62" s="19"/>
       <c r="Q62" s="19"/>
@@ -1604,8 +1599,8 @@
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
       <c r="L63" s="24"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
       <c r="O63" s="24"/>
       <c r="P63" s="22"/>
       <c r="Q63" s="22"/>
@@ -1620,11 +1615,10 @@
       <c r="Z63" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="M62:N63"/>
     <mergeCell ref="R30:Y30"/>
     <mergeCell ref="R31:Y31"/>
-    <mergeCell ref="B8:Y8"/>
     <mergeCell ref="B10:Y10"/>
     <mergeCell ref="B11:Y11"/>
     <mergeCell ref="B12:Y12"/>
